--- a/lib/transformer/test.xlsx
+++ b/lib/transformer/test.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14700" tabRatio="500"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="202">
   <si>
     <t>Hotel Name</t>
   </si>
@@ -88,13 +88,7 @@
     <t>Existing</t>
   </si>
   <si>
-    <t>account@ezeetechnosys.com.my</t>
-  </si>
-  <si>
     <t>Mr.</t>
-  </si>
-  <si>
-    <t>Thomas</t>
   </si>
   <si>
     <t>South Block 1st floor, Jalan 1/64D, Off Jalan Putra</t>
@@ -624,6 +618,21 @@
   </si>
   <si>
     <t>Business Info (Mandatory)</t>
+  </si>
+  <si>
+    <t>account@ezeetechnosys.com.my111@</t>
+  </si>
+  <si>
+    <t>account1@ezeetechnosys.com.my111@</t>
+  </si>
+  <si>
+    <t>Thomas1</t>
+  </si>
+  <si>
+    <t>chunkiat82@gmail.com</t>
+  </si>
+  <si>
+    <t>account@ezeetechnosys.com.my</t>
   </si>
 </sst>
 </file>
@@ -833,7 +842,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="52">
+  <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -990,8 +999,11 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
@@ -1035,26 +1047,25 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="52">
+  <cellStyles count="53">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -1105,6 +1116,7 @@
     <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1459,8 +1471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1469,7 +1481,7 @@
     <col min="2" max="2" width="16.1640625" style="7" customWidth="1"/>
     <col min="3" max="3" width="11" style="7" customWidth="1"/>
     <col min="4" max="4" width="34.6640625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="31.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45.1640625" style="7" customWidth="1"/>
     <col min="6" max="6" width="10.1640625" style="8" customWidth="1"/>
     <col min="7" max="7" width="14.33203125" style="8" customWidth="1"/>
     <col min="8" max="8" width="10.83203125" style="8"/>
@@ -1488,33 +1500,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="D1" s="31"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="32" t="s">
         <v>195</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="31" t="s">
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="D1" s="30"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="27" t="s">
-        <v>197</v>
-      </c>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="28" t="s">
-        <v>198</v>
-      </c>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="29"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="30"/>
     </row>
     <row r="2" spans="1:36">
       <c r="A2" s="9" t="s">
@@ -1585,511 +1597,514 @@
       <c r="C3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="D3" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="G3" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="J3" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="K3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="L3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="M3" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>28</v>
       </c>
       <c r="N3" s="7">
         <v>50350</v>
       </c>
       <c r="O3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="R3" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="P3" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="R3" s="13" t="s">
-        <v>31</v>
-      </c>
       <c r="S3" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:36">
       <c r="A4" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="8" t="s">
+      <c r="J4" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="K4" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="J4" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>38</v>
-      </c>
       <c r="M4" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N4" s="7">
         <v>83030</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="R4" s="13"/>
       <c r="S4" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:36">
       <c r="A5" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="8" t="s">
+      <c r="K5" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="J5" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>44</v>
-      </c>
       <c r="M5" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N5" s="7">
         <v>47810</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="R5" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="P5" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="R5" s="13" t="s">
-        <v>47</v>
-      </c>
       <c r="S5" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:36">
       <c r="A6" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>21</v>
       </c>
       <c r="D6" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="J6" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="8" t="s">
+      <c r="K6" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="J6" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>52</v>
-      </c>
       <c r="L6" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N6" s="7">
         <v>75000</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="R6" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="P6" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="R6" s="13" t="s">
-        <v>55</v>
-      </c>
       <c r="S6" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:36">
       <c r="A7" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>21</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="F7" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="G7" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="J7" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>52</v>
-      </c>
       <c r="L7" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N7" s="7">
         <v>75000</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="R7" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="P7" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="R7" s="13" t="s">
+      <c r="S7" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="S7" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:36">
       <c r="A8" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="8" t="s">
+      <c r="K8" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="J8" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>62</v>
-      </c>
       <c r="M8" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N8" s="7">
         <v>71760</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="R8" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="S8" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="R8" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="S8" s="7" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:36" ht="15" customHeight="1">
       <c r="A9" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="C9" s="7" t="s">
+      <c r="E9" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="F9" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="G9" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="E9" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="8" t="s">
+      <c r="H9" s="8" t="s">
         <v>69</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>71</v>
       </c>
       <c r="I9" s="14"/>
       <c r="J9" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M9" s="7" t="s">
-        <v>28</v>
       </c>
       <c r="N9" s="7">
         <v>56100</v>
       </c>
       <c r="O9" s="15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="P9" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="Q9" s="14"/>
       <c r="R9" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="S9" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:36">
       <c r="A10" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="25"/>
+      <c r="E10" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="J10" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="J10" s="13" t="s">
-        <v>79</v>
-      </c>
       <c r="K10" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="L10" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="M10" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="L10" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="M10" s="7" t="s">
-        <v>28</v>
       </c>
       <c r="N10" s="7">
         <v>55100</v>
       </c>
       <c r="O10" s="17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="R10" s="13"/>
       <c r="S10" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:36">
       <c r="A11" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="J11" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="J11" s="13" t="s">
-        <v>85</v>
-      </c>
       <c r="K11" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="M11" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="L11" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="M11" s="7" t="s">
-        <v>28</v>
       </c>
       <c r="N11" s="7">
         <v>50200</v>
       </c>
       <c r="O11" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="R11" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="S11" s="17" t="s">
         <v>87</v>
-      </c>
-      <c r="R11" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="S11" s="17" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:36">
       <c r="A12" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="G12" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D12" s="11" t="s">
+      <c r="J12" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="E12" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="8" t="s">
+      <c r="K12" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="J12" s="13" t="s">
+      <c r="L12" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="K12" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="L12" s="16" t="s">
-        <v>95</v>
-      </c>
       <c r="M12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N12" s="7">
         <v>36000</v>
       </c>
       <c r="O12" s="13" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="R12" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="R12" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="S12" s="13" t="s">
         <v>91</v>
-      </c>
-      <c r="S12" s="13" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:36" s="6" customFormat="1">
       <c r="A13" s="26" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C13" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H13" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="E13" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="M13" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="M13" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="N13" s="7">
         <v>96943</v>
@@ -2098,14 +2113,14 @@
         <v>6913506000</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="Q13" s="7"/>
       <c r="R13" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="S13" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="T13" s="26"/>
       <c r="U13" s="26"/>
@@ -2127,53 +2142,53 @@
     </row>
     <row r="14" spans="1:36" s="6" customFormat="1">
       <c r="A14" s="26" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C14" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="32" t="s">
-        <v>110</v>
-      </c>
-      <c r="E14" s="33" t="s">
-        <v>22</v>
+      <c r="D14" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>197</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L14" s="7"/>
       <c r="M14" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N14" s="7">
         <v>12150</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="Q14" s="7"/>
       <c r="R14" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="S14" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="T14" s="26"/>
       <c r="U14" s="26"/>
@@ -2195,53 +2210,53 @@
     </row>
     <row r="15" spans="1:36" s="6" customFormat="1">
       <c r="A15" s="26" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C15" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="32" t="s">
+      <c r="D15" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="H15" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="E15" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L15" s="7"/>
       <c r="M15" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="Q15" s="7"/>
       <c r="R15" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="S15" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="T15" s="26"/>
       <c r="U15" s="26"/>
@@ -2263,57 +2278,57 @@
     </row>
     <row r="16" spans="1:36" s="6" customFormat="1">
       <c r="A16" s="26" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C16" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="32" t="s">
+      <c r="D16" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="H16" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="E16" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="I16" s="7"/>
       <c r="J16" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="M16" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="M16" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="N16" s="7">
         <v>83352</v>
       </c>
       <c r="O16" s="20" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Q16" s="7"/>
       <c r="R16" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="S16" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="T16" s="26"/>
       <c r="U16" s="26"/>
@@ -2335,53 +2350,53 @@
     </row>
     <row r="17" spans="1:36" s="6" customFormat="1">
       <c r="A17" s="26" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C17" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="32" t="s">
+      <c r="D17" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H17" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="E17" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="I17" s="7"/>
       <c r="J17" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="L17" s="7"/>
       <c r="M17" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="N17" s="7"/>
       <c r="O17" s="20" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="Q17" s="7"/>
       <c r="R17" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="S17" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="T17" s="26"/>
       <c r="U17" s="26"/>
@@ -2403,22 +2418,22 @@
     </row>
     <row r="18" spans="1:36">
       <c r="A18" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="D18" s="32" t="s">
-        <v>184</v>
-      </c>
-      <c r="E18" s="33" t="s">
-        <v>22</v>
+        <v>75</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>197</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="R18" s="13"/>
     </row>
@@ -2432,7 +2447,7 @@
   <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="R14" r:id="rId1"/>
-    <hyperlink ref="D4" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId2" display="acc@mbaresort.com@"/>
     <hyperlink ref="D13" r:id="rId3"/>
     <hyperlink ref="D7" r:id="rId4"/>
     <hyperlink ref="D6" r:id="rId5"/>
@@ -2445,13 +2460,14 @@
     <hyperlink ref="D8" r:id="rId12"/>
     <hyperlink ref="D17" r:id="rId13"/>
     <hyperlink ref="R12" r:id="rId14"/>
-    <hyperlink ref="E4:E12" r:id="rId15" display="account@ezeetechnosys.com.my"/>
-    <hyperlink ref="E3" r:id="rId16"/>
-    <hyperlink ref="D18" r:id="rId17"/>
-    <hyperlink ref="D11" r:id="rId18"/>
+    <hyperlink ref="E3" r:id="rId15" display="account@ezeetechnosys.com.my111@"/>
+    <hyperlink ref="D18" r:id="rId16"/>
+    <hyperlink ref="D11" r:id="rId17"/>
+    <hyperlink ref="E4:E18" r:id="rId18" display="account@ezeetechnosys.com.my111@"/>
+    <hyperlink ref="E5" r:id="rId19"/>
+    <hyperlink ref="D3" r:id="rId20"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -2488,13 +2504,13 @@
   <sheetData>
     <row r="2" spans="2:7">
       <c r="B2" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>156</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>5</v>
@@ -2508,50 +2524,50 @@
         <v>21</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" t="s">
         <v>157</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="F3" t="s">
-        <v>69</v>
-      </c>
-      <c r="G3" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="45">
       <c r="B4" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
         <v>160</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="F4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="30">
       <c r="B5" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="F5" t="s">
         <v>163</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="F5" t="s">
-        <v>165</v>
-      </c>
       <c r="G5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="2:7">
@@ -2559,26 +2575,26 @@
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="F6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="2:7">
       <c r="F7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="2:7">
       <c r="F8" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G8" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="2:7">
@@ -2586,92 +2602,92 @@
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="21" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C10" s="24"/>
       <c r="D10" s="23" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G10" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="30">
       <c r="B11" s="21" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C11" s="24"/>
       <c r="D11" s="22" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G11" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="2:7">
       <c r="B12" s="21" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="2:7">
       <c r="B13" s="21" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="2:7">
       <c r="B14" s="21" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="2:7">
       <c r="B15" s="21" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="16" spans="2:7">
       <c r="B16" s="21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="2:4">
@@ -2679,16 +2695,15 @@
         <v>20</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
